--- a/assets/ledgerBackup/ledger.xlsx
+++ b/assets/ledgerBackup/ledger.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\loonie\shared\Swapnil\Trade of the year\LedgerBackup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5D4BD31-EF62-4FFA-9614-1746C3FDC8D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55151630-635B-4119-8BF3-1C996E546EA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15750" xr2:uid="{8C1B0DF3-35F7-4D09-A59F-BE054259536C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" xr2:uid="{7C77527E-FEF1-4067-B4C4-5F463DBAEB31}"/>
   </bookViews>
   <sheets>
     <sheet name="Ledger" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="28">
+  <futureMetadata name="XLRICHVALUE" count="27">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -240,20 +240,13 @@
         </ext>
       </extLst>
     </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="124"/>
-        </ext>
-      </extLst>
-    </bk>
   </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="28">
+  <valueMetadata count="27">
     <bk>
       <rc t="2" v="0"/>
     </bk>
@@ -335,15 +328,12 @@
     <bk>
       <rc t="2" v="26"/>
     </bk>
-    <bk>
-      <rc t="2" v="27"/>
-    </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="54">
   <si>
     <t>Total Rows</t>
   </si>
@@ -505,9 +495,6 @@
   </si>
   <si>
     <t>Software &amp; IT Services</t>
-  </si>
-  <si>
-    <t>Cyndi Amaral</t>
   </si>
 </sst>
 </file>
@@ -689,14 +676,9 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="4">
-          <cell r="C4" t="str">
-            <v>Cyndi Amaral</v>
-          </cell>
-        </row>
         <row r="7">
           <cell r="E7" t="str">
-            <v>XNAS:GOOG</v>
+            <v/>
           </cell>
           <cell r="F7" t="str">
             <v/>
@@ -803,7 +785,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="125">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="123">
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a26ap2&amp;q=ARCX%3aXRT&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
@@ -2423,60 +2405,11 @@
   <rv s="2">
     <v>121</v>
   </rv>
-  <rv s="13">
-    <v>en-US</v>
-    <v>a1u3p2</v>
-    <v>268435456</v>
-    <v>268435457</v>
-    <v>0</v>
-    <v>Powered by Refinitiv</v>
-    <v>29</v>
-    <v>ALPHABET INC. (XNAS:GOOG)</v>
-    <v>7</v>
-    <v>30</v>
-    <v>Finance</v>
-    <v>31</v>
-    <v>1847.2</v>
-    <v>1013.5361</v>
-    <v>1.0089999999999999</v>
-    <v>-40.49</v>
-    <v>-2.2404999999999998E-2</v>
-    <v>USD</v>
-    <v>Alphabet Inc. is a holding company. The Company's businesses include Google Inc. (Google) and its Internet products, such as Access, Calico, CapitalG, GV, Nest, Verily, Waymo and X. The Company's segments include Google and Other Bets. The Google segment includes its Internet products, such as Search, Ads, Commerce, Maps, YouTube, Google Cloud, Android, Chrome and Google Play, as well as its hardware initiatives. The Google segment is engaged in advertising, sales of digital content, applications and cloud offerings, and sales of hardware products. The Other Bets segment is engaged in the sales of Internet and television services through Google Fiber, sales of Nest products and services, and licensing and research and development (R&amp;D) services through Verily. It offers Google Assistant, which allows users to type or talk with Google; Google Maps, which helps users navigate to a store, and Google Photos, which helps users store and organize all of their photos.</v>
-    <v>132121</v>
-    <v>Nasdaq Stock Market</v>
-    <v>XNAS</v>
-    <v>XNAS</v>
-    <v>1600 Amphitheatre Pkwy, MOUNTAIN VIEW, CA, 94043-1351 US</v>
-    <v>1794.3150000000001</v>
-    <v>113</v>
-    <v>Software &amp; IT Services</v>
-    <v>Stock</v>
-    <v>44208.041587522654</v>
-    <v>114</v>
-    <v>1760.5201</v>
-    <v>1191441000000</v>
-    <v>ALPHABET INC.</v>
-    <v>ALPHABET INC.</v>
-    <v>1786.07</v>
-    <v>34.1295</v>
-    <v>1807.21</v>
-    <v>1766.72</v>
-    <v>676426300</v>
-    <v>GOOG</v>
-    <v>ALPHABET INC. (XNAS:GOOG)</v>
-    <v>8359</v>
-    <v>1538273</v>
-    <v>2015</v>
-  </rv>
-  <rv s="2">
-    <v>123</v>
-  </rv>
 </rvData>
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="14">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="13">
   <s t="_hyperlink">
     <k n="Address" t="s"/>
     <k n="Text" t="s"/>
@@ -2905,58 +2838,12 @@
     <k n="Volume"/>
     <k n="Year incorporated"/>
   </s>
-  <s t="_linkedentitycore">
-    <k n="%EntityCulture" t="s"/>
-    <k n="%EntityId" t="s"/>
-    <k n="%EntityServiceId"/>
-    <k n="%EntitySubDomainId"/>
-    <k n="%IsRefreshable" t="b"/>
-    <k n="%ProviderInfo" t="s"/>
-    <k n="_Display" t="spb"/>
-    <k n="_DisplayString" t="s"/>
-    <k n="_Flags" t="spb"/>
-    <k n="_Format" t="spb"/>
-    <k n="_Icon" t="s"/>
-    <k n="_SubLabel" t="spb"/>
-    <k n="52 week high"/>
-    <k n="52 week low"/>
-    <k n="Beta"/>
-    <k n="Change"/>
-    <k n="Change (%)"/>
-    <k n="Currency" t="s"/>
-    <k n="Description" t="s"/>
-    <k n="Employees"/>
-    <k n="Exchange" t="s"/>
-    <k n="Exchange abbreviation" t="s"/>
-    <k n="ExchangeID" t="s"/>
-    <k n="Headquarters" t="s"/>
-    <k n="High"/>
-    <k n="Image" t="r"/>
-    <k n="Industry" t="s"/>
-    <k n="Instrument type" t="s"/>
-    <k n="Last trade time"/>
-    <k n="LearnMoreOnLink" t="r"/>
-    <k n="Low"/>
-    <k n="Market cap"/>
-    <k n="Name" t="s"/>
-    <k n="Official name" t="s"/>
-    <k n="Open"/>
-    <k n="P/E"/>
-    <k n="Previous close"/>
-    <k n="Price"/>
-    <k n="Shares outstanding"/>
-    <k n="Ticker symbol" t="s"/>
-    <k n="UniqueName" t="s"/>
-    <k n="Volume"/>
-    <k n="Volume average"/>
-    <k n="Year incorporated"/>
-  </s>
 </rvStructures>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbArrays count="10">
+  <spbArrays count="9">
     <a count="38">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
@@ -3368,54 +3255,8 @@
       <v t="s">%ProviderInfo</v>
       <v t="s">_Display</v>
     </a>
-    <a count="44">
-      <v t="s">%EntityServiceId</v>
-      <v t="s">_Format</v>
-      <v t="s">%EntitySubDomainId</v>
-      <v t="s">%EntityCulture</v>
-      <v t="s">%IsRefreshable</v>
-      <v t="s">%EntityId</v>
-      <v t="s">_Icon</v>
-      <v t="s">Name</v>
-      <v t="s">_SubLabel</v>
-      <v t="s">Price</v>
-      <v t="s">Exchange</v>
-      <v t="s">Official name</v>
-      <v t="s">Last trade time</v>
-      <v t="s">Ticker symbol</v>
-      <v t="s">Exchange abbreviation</v>
-      <v t="s">Change</v>
-      <v t="s">Change (%)</v>
-      <v t="s">Currency</v>
-      <v t="s">Previous close</v>
-      <v t="s">Open</v>
-      <v t="s">High</v>
-      <v t="s">Low</v>
-      <v t="s">52 week high</v>
-      <v t="s">52 week low</v>
-      <v t="s">Volume</v>
-      <v t="s">Volume average</v>
-      <v t="s">Market cap</v>
-      <v t="s">Beta</v>
-      <v t="s">P/E</v>
-      <v t="s">Shares outstanding</v>
-      <v t="s">Description</v>
-      <v t="s">Employees</v>
-      <v t="s">Headquarters</v>
-      <v t="s">Industry</v>
-      <v t="s">Instrument type</v>
-      <v t="s">Year incorporated</v>
-      <v t="s">_Flags</v>
-      <v t="s">UniqueName</v>
-      <v t="s">_DisplayString</v>
-      <v t="s">LearnMoreOnLink</v>
-      <v t="s">Image</v>
-      <v t="s">ExchangeID</v>
-      <v t="s">%ProviderInfo</v>
-      <v t="s">_Display</v>
-    </a>
   </spbArrays>
-  <spbData count="32">
+  <spbData count="29">
     <spb s="0">
       <v>0</v>
     </spb>
@@ -3785,47 +3626,12 @@
       <v>1</v>
       <v>5</v>
     </spb>
-    <spb s="0">
-      <v>9</v>
-    </spb>
-    <spb s="19">
-      <v>1</v>
-      <v>2</v>
-      <v>2</v>
-      <v>1</v>
-      <v>3</v>
-      <v>1</v>
-      <v>10</v>
-      <v>1</v>
-      <v>1</v>
-      <v>4</v>
-      <v>4</v>
-      <v>5</v>
-      <v>6</v>
-      <v>1</v>
-      <v>1</v>
-      <v>1</v>
-      <v>4</v>
-      <v>7</v>
-      <v>8</v>
-      <v>9</v>
-      <v>11</v>
-      <v>9</v>
-      <v>4</v>
-    </spb>
-    <spb s="20">
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from previous close</v>
-      <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
-      <v>GMT</v>
-    </spb>
   </spbData>
 </supportingPropertyBags>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="21">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="19">
   <s>
     <k n="^Order" t="spba"/>
   </s>
@@ -4115,38 +3921,6 @@
     <k n="Price (Extended hours)" t="s"/>
     <k n="Change (Extended hours)" t="s"/>
     <k n="Change % (Extended hours)" t="s"/>
-  </s>
-  <s>
-    <k n="Low" t="i"/>
-    <k n="P/E" t="i"/>
-    <k n="Beta" t="i"/>
-    <k n="High" t="i"/>
-    <k n="Name" t="i"/>
-    <k n="Open" t="i"/>
-    <k n="Image" t="i"/>
-    <k n="Price" t="i"/>
-    <k n="Change" t="i"/>
-    <k n="Volume" t="i"/>
-    <k n="Employees" t="i"/>
-    <k n="Change (%)" t="i"/>
-    <k n="Market cap" t="i"/>
-    <k n="52 week low" t="i"/>
-    <k n="52 week high" t="i"/>
-    <k n="Previous close" t="i"/>
-    <k n="Volume average" t="i"/>
-    <k n="_DisplayString" t="i"/>
-    <k n="Last trade time" t="i"/>
-    <k n="%EntityServiceId" t="i"/>
-    <k n="Year incorporated" t="i"/>
-    <k n="%EntitySubDomainId" t="i"/>
-    <k n="Shares outstanding" t="i"/>
-  </s>
-  <s>
-    <k n="Price" t="s"/>
-    <k n="Change" t="s"/>
-    <k n="Change (%)" t="s"/>
-    <k n="ExchangeID" t="s"/>
-    <k n="Last trade time" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -4518,13 +4292,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F34D31E1-077A-4530-971E-877C2689686A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CBC00AD-E70D-4AE7-97C6-DB869722C334}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:S500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4565,15 +4339,15 @@
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E2" s="3">
         <f>IFERROR(COUNT(B6:B500)+1+5,"")</f>
-        <v>102</v>
-      </c>
-      <c r="F2" s="7" cm="1">
+        <v>99</v>
+      </c>
+      <c r="F2" s="7" t="str" cm="1">
         <f t="array" ref="F2">IFERROR(INDEX(A6:A500,MATCH(1,(I2=H6:H500)*(I3=I6:I500)*(J2=M6:M500),0))-1000+5,"")</f>
-        <v>101</v>
-      </c>
-      <c r="G2" s="8" cm="1">
+        <v/>
+      </c>
+      <c r="G2" s="8" t="str" cm="1">
         <f t="array" ref="G2">IFERROR(INDEX(A6:A500,MATCH(1,(I2=H6:H500)*(I3=J6:J500),0))-1000+5,"")</f>
-        <v>100</v>
+        <v/>
       </c>
       <c r="H2" s="7" t="str" cm="1">
         <f t="array" ref="H2">IFERROR(INDEX(A6:A500,MATCH(1,(I2=H6:H500)*(I3=I6:I500)*(K2=M6:M500),0))-1000+5,"")</f>
@@ -4584,7 +4358,7 @@
       </c>
       <c r="J2" s="9" t="str">
         <f>[1]Trade!E7</f>
-        <v>XNAS:GOOG</v>
+        <v/>
       </c>
       <c r="K2" s="9" t="str">
         <f>[1]Trade!F7</f>
@@ -4594,9 +4368,9 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F3" s="11"/>
-      <c r="I3" s="9" t="str">
+      <c r="I3" s="9">
         <f>[1]Trade!C4</f>
-        <v>Cyndi Amaral</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -4660,7 +4434,7 @@
         <v>1001</v>
       </c>
       <c r="B6" s="2">
-        <v>43833</v>
+        <v>44199</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>21</v>
@@ -4721,7 +4495,7 @@
         <v>1002</v>
       </c>
       <c r="B7" s="2">
-        <v>43833</v>
+        <v>44199</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>23</v>
@@ -4782,7 +4556,7 @@
         <v>1003</v>
       </c>
       <c r="B8" s="2">
-        <v>43833</v>
+        <v>44199</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>24</v>
@@ -4843,7 +4617,7 @@
         <v>1004</v>
       </c>
       <c r="B9" s="2">
-        <v>43833</v>
+        <v>44199</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>25</v>
@@ -4904,7 +4678,7 @@
         <v>1005</v>
       </c>
       <c r="B10" s="2">
-        <v>43833</v>
+        <v>44199</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>26</v>
@@ -4963,7 +4737,7 @@
         <v>1006</v>
       </c>
       <c r="B11" s="2">
-        <v>43833</v>
+        <v>44199</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>27</v>
@@ -5022,7 +4796,7 @@
         <v>1007</v>
       </c>
       <c r="B12" s="2">
-        <v>43833</v>
+        <v>44199</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>28</v>
@@ -5081,7 +4855,7 @@
         <v>1008</v>
       </c>
       <c r="B13" s="2">
-        <v>43833</v>
+        <v>44199</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>29</v>
@@ -5140,7 +4914,7 @@
         <v>1009</v>
       </c>
       <c r="B14" s="2">
-        <v>43833</v>
+        <v>44199</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>30</v>
@@ -5199,7 +4973,7 @@
         <v>1010</v>
       </c>
       <c r="B15" s="2">
-        <v>43833</v>
+        <v>44199</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>31</v>
@@ -5258,7 +5032,7 @@
         <v>1011</v>
       </c>
       <c r="B16" s="2">
-        <v>43833</v>
+        <v>44199</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -5317,7 +5091,7 @@
         <v>1012</v>
       </c>
       <c r="B17" s="2">
-        <v>43833</v>
+        <v>44199</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>33</v>
@@ -5376,7 +5150,7 @@
         <v>1013</v>
       </c>
       <c r="B18" s="2">
-        <v>43833</v>
+        <v>44199</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>34</v>
@@ -5435,7 +5209,7 @@
         <v>1014</v>
       </c>
       <c r="B19" s="2">
-        <v>43833</v>
+        <v>44199</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>35</v>
@@ -5494,7 +5268,7 @@
         <v>1015</v>
       </c>
       <c r="B20" s="2">
-        <v>43833</v>
+        <v>44199</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>36</v>
@@ -5553,7 +5327,7 @@
         <v>1016</v>
       </c>
       <c r="B21" s="2">
-        <v>43833</v>
+        <v>44199</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>37</v>
@@ -5612,7 +5386,7 @@
         <v>1017</v>
       </c>
       <c r="B22" s="2">
-        <v>43833</v>
+        <v>44199</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>38</v>
@@ -5671,7 +5445,7 @@
         <v>1018</v>
       </c>
       <c r="B23" s="2">
-        <v>43833</v>
+        <v>44199</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>39</v>
@@ -5730,7 +5504,7 @@
         <v>1019</v>
       </c>
       <c r="B24" s="2">
-        <v>43833</v>
+        <v>44199</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>40</v>
@@ -5789,7 +5563,7 @@
         <v>1020</v>
       </c>
       <c r="B25" s="2">
-        <v>43833</v>
+        <v>44199</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>41</v>
@@ -5848,7 +5622,7 @@
         <v>1021</v>
       </c>
       <c r="B26" s="2">
-        <v>43833</v>
+        <v>44199</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>42</v>
@@ -5907,7 +5681,7 @@
         <v>1022</v>
       </c>
       <c r="B27" s="2">
-        <v>43833</v>
+        <v>44199</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>43</v>
@@ -5966,7 +5740,7 @@
         <v>1023</v>
       </c>
       <c r="B28" s="2">
-        <v>43833</v>
+        <v>44199</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>44</v>
@@ -6025,7 +5799,7 @@
         <v>1024</v>
       </c>
       <c r="B29" s="2">
-        <v>43833</v>
+        <v>44199</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>45</v>
@@ -6084,7 +5858,7 @@
         <v>1025</v>
       </c>
       <c r="B30" s="2">
-        <v>43833</v>
+        <v>44199</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>46</v>
@@ -6143,7 +5917,7 @@
         <v>1026</v>
       </c>
       <c r="B31" s="2">
-        <v>43833</v>
+        <v>44199</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>47</v>
@@ -6202,7 +5976,7 @@
         <v>1027</v>
       </c>
       <c r="B32" s="2">
-        <v>43833</v>
+        <v>44199</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>48</v>
@@ -6261,7 +6035,7 @@
         <v>1028</v>
       </c>
       <c r="B33" s="2">
-        <v>43833</v>
+        <v>44199</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>49</v>
@@ -6320,7 +6094,7 @@
         <v>1029</v>
       </c>
       <c r="B34" s="2">
-        <v>43833</v>
+        <v>44199</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>50</v>
@@ -6379,7 +6153,7 @@
         <v>1030</v>
       </c>
       <c r="B35" s="2">
-        <v>43833</v>
+        <v>44199</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>51</v>
@@ -6438,7 +6212,7 @@
         <v>1031</v>
       </c>
       <c r="B36" s="2">
-        <v>43833</v>
+        <v>44199</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>52</v>
@@ -9977,21 +9751,7 @@
         <f t="shared" si="7"/>
         <v>1094</v>
       </c>
-      <c r="B99" s="2">
-        <v>44199</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D99" s="2">
-        <v>44207</v>
-      </c>
-      <c r="G99" s="12">
-        <v>100000</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="D99" s="2"/>
       <c r="I99" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -10034,34 +9794,22 @@
         <f t="shared" si="7"/>
         <v>1095</v>
       </c>
-      <c r="B100" s="2">
-        <v>44207</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="D100" s="2"/>
-      <c r="G100" s="12">
-        <v>64278.6</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="I100" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J100" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Cyndi Amaral</v>
+        <v/>
       </c>
       <c r="K100" s="1" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L100" s="6">
+      <c r="L100" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>64278.6</v>
+        <v/>
       </c>
       <c r="M100" s="6" t="str" cm="1">
         <f t="array" ref="M100">IFERROR(IF(F100&lt;&gt;"",_FV(E100,"Exchange abbreviation",TRUE) &amp; ":" &amp;_FV(E100,"Ticker symbol",TRUE),""),E100)</f>
@@ -10089,57 +9837,42 @@
         <f t="shared" si="7"/>
         <v>1096</v>
       </c>
-      <c r="B101" s="2">
-        <v>44207</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="D101" s="2"/>
-      <c r="E101" s="10" t="e" vm="28">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F101" s="21">
-        <v>20</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="I101" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Cyndi Amaral</v>
+        <v/>
       </c>
       <c r="J101" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K101" s="1">
+      <c r="K101" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="L101" s="6">
+        <v/>
+      </c>
+      <c r="L101" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="M101" s="6" t="str" cm="1">
         <f t="array" ref="M101">IFERROR(IF(F101&lt;&gt;"",_FV(E101,"Exchange abbreviation",TRUE) &amp; ":" &amp;_FV(E101,"Ticker symbol",TRUE),""),E101)</f>
-        <v>XNAS:GOOG</v>
+        <v/>
       </c>
       <c r="N101" s="6" t="str" cm="1">
         <f t="array" ref="N101">IFERROR(IF(F101&lt;&gt;"",_FV(E101,"Industry",TRUE),""),"ETF")</f>
-        <v>Software &amp; IT Services</v>
+        <v/>
       </c>
       <c r="O101" s="6" t="str" cm="1">
         <f t="array" ref="O101">IFERROR(IF(F101&lt;&gt;"",_FV(E101,"Exchange abbreviation",TRUE),""),LEFT(M101,FIND(":",M101)-1))</f>
-        <v>XNAS</v>
+        <v/>
       </c>
       <c r="P101" s="1" t="str" cm="1">
         <f t="array" ref="P101">IFERROR(IF(F101&lt;&gt;"",_FV(E101,"Instrument type",TRUE),""),"Unknown")</f>
-        <v>Stock</v>
+        <v/>
       </c>
       <c r="Q101" s="1" t="str" cm="1">
         <f t="array" ref="Q101">IFERROR(IF(F101&lt;&gt;"",_FV(E101,"Ticker symbol",TRUE),""), RIGHT(M101,LEN(M101)-FIND(":",M101)))</f>
-        <v>GOOG</v>
+        <v/>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
@@ -26904,7 +26637,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F1048576" xr:uid="{047A3C56-3C8E-4B1B-99C0-79439972348F}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F1048576" xr:uid="{B4094205-EE3B-4978-BC3E-497B1C6B86A7}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -26913,7 +26646,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{88E9A6AE-1CEA-408E-BC22-82D561EDFF1B}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{41495BB7-9449-4ACF-8129-42AA50746178}">
           <x14:formula1>
             <xm:f>'[Trade of the year_Final.xlsm]Team'!#REF!</xm:f>
           </x14:formula1>

--- a/assets/ledgerBackup/ledger.xlsx
+++ b/assets/ledgerBackup/ledger.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\loonie\shared\Swapnil\Trade of the year\LedgerBackup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55151630-635B-4119-8BF3-1C996E546EA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EDB7889-8CD7-4E60-80E9-163A99BE9099}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" xr2:uid="{7C77527E-FEF1-4067-B4C4-5F463DBAEB31}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" xr2:uid="{2E907125-B2BB-481F-B579-AC5B9BAC7F44}"/>
   </bookViews>
   <sheets>
     <sheet name="Ledger" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="27">
+  <futureMetadata name="XLRICHVALUE" count="29">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -240,13 +240,27 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="124"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="126"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="27">
+  <valueMetadata count="29">
     <bk>
       <rc t="2" v="0"/>
     </bk>
@@ -328,12 +342,18 @@
     <bk>
       <rc t="2" v="26"/>
     </bk>
+    <bk>
+      <rc t="2" v="27"/>
+    </bk>
+    <bk>
+      <rc t="2" v="28"/>
+    </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="55">
   <si>
     <t>Total Rows</t>
   </si>
@@ -495,6 +515,9 @@
   </si>
   <si>
     <t>Software &amp; IT Services</t>
+  </si>
+  <si>
+    <t>Cyndi Amaral</t>
   </si>
 </sst>
 </file>
@@ -676,12 +699,17 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="4">
+          <cell r="C4" t="str">
+            <v>Cyndi Amaral</v>
+          </cell>
+        </row>
         <row r="7">
           <cell r="E7" t="str">
-            <v/>
+            <v>XNAS:AAPL</v>
           </cell>
           <cell r="F7" t="str">
-            <v/>
+            <v>XNAS:MAT</v>
           </cell>
         </row>
       </sheetData>
@@ -785,7 +813,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="123">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="127">
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a26ap2&amp;q=ARCX%3aXRT&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
@@ -2404,6 +2432,109 @@
   </rv>
   <rv s="2">
     <v>121</v>
+  </rv>
+  <rv s="5">
+    <v>en-US</v>
+    <v>a1mou2</v>
+    <v>268435456</v>
+    <v>268435457</v>
+    <v>0</v>
+    <v>Powered by Refinitiv</v>
+    <v>5</v>
+    <v>APPLE INC. (XNAS:AAPL)</v>
+    <v>7</v>
+    <v>8</v>
+    <v>Finance</v>
+    <v>9</v>
+    <v>138.78899999999999</v>
+    <v>53.152500000000003</v>
+    <v>1.2675000000000001</v>
+    <v>-1.77</v>
+    <v>-2.5169999999999997E-3</v>
+    <v>-1.3731E-2</v>
+    <v>-0.32</v>
+    <v>USD</v>
+    <v>Apple Inc. designs, manufactures and markets mobile communication and media devices, personal computers and portable digital music players. The Company sells a range of related software, services, accessories, networking solutions, and third-party digital content and applications. The Company's segments include the Americas, Europe, Greater China, Japan and Rest of Asia Pacific. The Americas segment includes both North and South America. The Europe segment includes European countries, India, the Middle East and Africa. The Greater China segment includes China, Hong Kong and Taiwan. The Rest of Asia Pacific segment includes Australia and the Asian countries not included in the Company's other operating segments. Its products and services include iPhone, iPad, Mac, iPod, Apple Watch, Apple TV, a portfolio of consumer and professional software applications, iPhone OS (iOS), OS X and watchOS operating systems, iCloud, Apple Pay and a range of accessory, service and support offerings.</v>
+    <v>147000</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>1 Apple Park Way, CUPERTINO, CA, 95014-0642 US</v>
+    <v>130.2242</v>
+    <v>61</v>
+    <v>Computers, Phones &amp; Household Electronics</v>
+    <v>Stock</v>
+    <v>44211.987758668751</v>
+    <v>62</v>
+    <v>127</v>
+    <v>2166836000000</v>
+    <v>APPLE INC.</v>
+    <v>APPLE INC.</v>
+    <v>128.78</v>
+    <v>39.460700000000003</v>
+    <v>128.91</v>
+    <v>127.14</v>
+    <v>126.82</v>
+    <v>16823260000</v>
+    <v>AAPL</v>
+    <v>APPLE INC. (XNAS:AAPL)</v>
+    <v>111598531</v>
+    <v>110487219</v>
+    <v>1977</v>
+  </rv>
+  <rv s="2">
+    <v>123</v>
+  </rv>
+  <rv s="11">
+    <v>en-US</v>
+    <v>a1xarw</v>
+    <v>268435456</v>
+    <v>268435457</v>
+    <v>0</v>
+    <v>Powered by Refinitiv</v>
+    <v>23</v>
+    <v>MATTEL, INC. (XNAS:MAT)</v>
+    <v>7</v>
+    <v>24</v>
+    <v>Finance</v>
+    <v>9</v>
+    <v>19.420000000000002</v>
+    <v>6.53</v>
+    <v>1.4836</v>
+    <v>-0.06</v>
+    <v>0</v>
+    <v>-3.1879999999999999E-3</v>
+    <v>0</v>
+    <v>USD</v>
+    <v>Mattel, Inc. manufactures and markets a range of toy products around the world. The Company's segments are North America; International, and American Girl. Its portfolio of brands and products are grouped into approximately four major brand categories, including Mattel Girls &amp; Boys Brands, Fisher-Price Brands, American Girl Brands and Construction and Arts &amp; Crafts Brands. The Mattel Girls &amp; Boys Brands category includes Barbie fashion dolls, Monster High, Disney Classics, Ever After High, Little Mommy, and Polly Pocket, Hot Wheels and Matchbox vehicles and play sets, and CARS, Disney Planes, BOOMco, Toy Story, Max Steel, WWE Wrestling and DC Comics. The Fisher-Price Brands category includes Fisher-Price, Little People, BabyGear, Laugh &amp; Learn, Imaginext, Thomas &amp; Friends, Blaze and The Monster Machines, Shimmer and Shine, Mickey Mouse Clubhouse, Minnie Mouse, Octonauts, and Power Wheels. The Construction and Arts &amp; Crafts Brands category includes MEGA BLOKS, RoseArt and Board Dudes.</v>
+    <v>24000</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>333 CONTINENTAL BLVD, EL SEGUNDO, CA, 90245 US</v>
+    <v>18.885000000000002</v>
+    <v>67</v>
+    <v>Leisure Products</v>
+    <v>Stock</v>
+    <v>44211.96788545078</v>
+    <v>68</v>
+    <v>18.329999999999998</v>
+    <v>6664972000</v>
+    <v>MATTEL, INC.</v>
+    <v>MATTEL, INC.</v>
+    <v>18.559999999999999</v>
+    <v>18.82</v>
+    <v>18.760000000000002</v>
+    <v>18.760000000000002</v>
+    <v>348040300</v>
+    <v>MAT</v>
+    <v>MATTEL, INC. (XNAS:MAT)</v>
+    <v>1554192</v>
+    <v>2705788</v>
+    <v>1968</v>
+  </rv>
+  <rv s="2">
+    <v>125</v>
   </rv>
 </rvData>
 </file>
@@ -4292,13 +4423,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CBC00AD-E70D-4AE7-97C6-DB869722C334}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E59B3B4-99C3-433A-AF75-361EF2A41015}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:S500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
+      <pane ySplit="5" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4339,38 +4470,38 @@
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E2" s="3">
         <f>IFERROR(COUNT(B6:B500)+1+5,"")</f>
-        <v>99</v>
-      </c>
-      <c r="F2" s="7" t="str" cm="1">
+        <v>104</v>
+      </c>
+      <c r="F2" s="7" cm="1">
         <f t="array" ref="F2">IFERROR(INDEX(A6:A500,MATCH(1,(I2=H6:H500)*(I3=I6:I500)*(J2=M6:M500),0))-1000+5,"")</f>
-        <v/>
-      </c>
-      <c r="G2" s="8" t="str" cm="1">
+        <v>101</v>
+      </c>
+      <c r="G2" s="8" cm="1">
         <f t="array" ref="G2">IFERROR(INDEX(A6:A500,MATCH(1,(I2=H6:H500)*(I3=J6:J500),0))-1000+5,"")</f>
-        <v/>
-      </c>
-      <c r="H2" s="7" t="str" cm="1">
+        <v>102</v>
+      </c>
+      <c r="H2" s="7" cm="1">
         <f t="array" ref="H2">IFERROR(INDEX(A6:A500,MATCH(1,(I2=H6:H500)*(I3=I6:I500)*(K2=M6:M500),0))-1000+5,"")</f>
-        <v/>
+        <v>103</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="J2" s="9" t="str">
         <f>[1]Trade!E7</f>
-        <v/>
+        <v>XNAS:AAPL</v>
       </c>
       <c r="K2" s="9" t="str">
         <f>[1]Trade!F7</f>
-        <v/>
+        <v>XNAS:MAT</v>
       </c>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F3" s="11"/>
-      <c r="I3" s="9">
+      <c r="I3" s="9" t="str">
         <f>[1]Trade!C4</f>
-        <v>0</v>
+        <v>Cyndi Amaral</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -9751,7 +9882,21 @@
         <f t="shared" si="7"/>
         <v>1094</v>
       </c>
-      <c r="D99" s="2"/>
+      <c r="B99" s="2">
+        <v>44199</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D99" s="2">
+        <v>44209</v>
+      </c>
+      <c r="G99" s="12">
+        <v>100000</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I99" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -9794,7 +9939,21 @@
         <f t="shared" si="7"/>
         <v>1095</v>
       </c>
-      <c r="D100" s="2"/>
+      <c r="B100" s="2">
+        <v>44209</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D100" s="2">
+        <v>44203</v>
+      </c>
+      <c r="G100" s="12">
+        <v>35620</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I100" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -9837,42 +9996,57 @@
         <f t="shared" si="7"/>
         <v>1096</v>
       </c>
+      <c r="B101" s="2">
+        <v>44209</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="D101" s="2"/>
+      <c r="E101" s="10" t="e" vm="28">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F101" s="21">
+        <v>500</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="I101" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>Cyndi Amaral</v>
       </c>
       <c r="J101" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K101" s="1" t="str">
+      <c r="K101" s="1">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="L101" s="6" t="str">
+        <v>500</v>
+      </c>
+      <c r="L101" s="6">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M101" s="6" t="str" cm="1">
         <f t="array" ref="M101">IFERROR(IF(F101&lt;&gt;"",_FV(E101,"Exchange abbreviation",TRUE) &amp; ":" &amp;_FV(E101,"Ticker symbol",TRUE),""),E101)</f>
-        <v/>
+        <v>XNAS:AAPL</v>
       </c>
       <c r="N101" s="6" t="str" cm="1">
         <f t="array" ref="N101">IFERROR(IF(F101&lt;&gt;"",_FV(E101,"Industry",TRUE),""),"ETF")</f>
-        <v/>
+        <v>Computers, Phones &amp; Household Electronics</v>
       </c>
       <c r="O101" s="6" t="str" cm="1">
         <f t="array" ref="O101">IFERROR(IF(F101&lt;&gt;"",_FV(E101,"Exchange abbreviation",TRUE),""),LEFT(M101,FIND(":",M101)-1))</f>
-        <v/>
+        <v>XNAS</v>
       </c>
       <c r="P101" s="1" t="str" cm="1">
         <f t="array" ref="P101">IFERROR(IF(F101&lt;&gt;"",_FV(E101,"Instrument type",TRUE),""),"Unknown")</f>
-        <v/>
+        <v>Stock</v>
       </c>
       <c r="Q101" s="1" t="str" cm="1">
         <f t="array" ref="Q101">IFERROR(IF(F101&lt;&gt;"",_FV(E101,"Ticker symbol",TRUE),""), RIGHT(M101,LEN(M101)-FIND(":",M101)))</f>
-        <v/>
+        <v>AAPL</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
@@ -9880,22 +10054,34 @@
         <f t="shared" si="7"/>
         <v>1097</v>
       </c>
+      <c r="B102" s="2">
+        <v>44203</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="D102" s="2"/>
+      <c r="G102" s="12">
+        <v>28376</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="I102" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J102" s="1" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>Cyndi Amaral</v>
       </c>
       <c r="K102" s="1" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L102" s="6" t="str">
+      <c r="L102" s="6">
         <f t="shared" si="9"/>
-        <v/>
+        <v>28376</v>
       </c>
       <c r="M102" s="6" t="str" cm="1">
         <f t="array" ref="M102">IFERROR(IF(F102&lt;&gt;"",_FV(E102,"Exchange abbreviation",TRUE) &amp; ":" &amp;_FV(E102,"Ticker symbol",TRUE),""),E102)</f>
@@ -9923,42 +10109,57 @@
         <f t="shared" si="7"/>
         <v>1098</v>
       </c>
+      <c r="B103" s="2">
+        <v>44203</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="D103" s="2"/>
+      <c r="E103" s="10" t="e" vm="29">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F103" s="21">
+        <v>400</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="I103" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>Cyndi Amaral</v>
       </c>
       <c r="J103" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K103" s="1" t="str">
+      <c r="K103" s="1">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="L103" s="6" t="str">
+        <v>400</v>
+      </c>
+      <c r="L103" s="6">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M103" s="6" t="str" cm="1">
         <f t="array" ref="M103">IFERROR(IF(F103&lt;&gt;"",_FV(E103,"Exchange abbreviation",TRUE) &amp; ":" &amp;_FV(E103,"Ticker symbol",TRUE),""),E103)</f>
-        <v/>
+        <v>XNAS:MAT</v>
       </c>
       <c r="N103" s="6" t="str" cm="1">
         <f t="array" ref="N103">IFERROR(IF(F103&lt;&gt;"",_FV(E103,"Industry",TRUE),""),"ETF")</f>
-        <v/>
+        <v>Leisure Products</v>
       </c>
       <c r="O103" s="6" t="str" cm="1">
         <f t="array" ref="O103">IFERROR(IF(F103&lt;&gt;"",_FV(E103,"Exchange abbreviation",TRUE),""),LEFT(M103,FIND(":",M103)-1))</f>
-        <v/>
+        <v>XNAS</v>
       </c>
       <c r="P103" s="1" t="str" cm="1">
         <f t="array" ref="P103">IFERROR(IF(F103&lt;&gt;"",_FV(E103,"Instrument type",TRUE),""),"Unknown")</f>
-        <v/>
+        <v>Stock</v>
       </c>
       <c r="Q103" s="1" t="str" cm="1">
         <f t="array" ref="Q103">IFERROR(IF(F103&lt;&gt;"",_FV(E103,"Ticker symbol",TRUE),""), RIGHT(M103,LEN(M103)-FIND(":",M103)))</f>
-        <v/>
+        <v>MAT</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
@@ -26637,7 +26838,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F1048576" xr:uid="{B4094205-EE3B-4978-BC3E-497B1C6B86A7}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F1048576" xr:uid="{D1AA580E-79B9-442F-8532-44ACFAA7A2AF}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -26646,7 +26847,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{41495BB7-9449-4ACF-8129-42AA50746178}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{56251C2C-AF6E-4872-86CF-F3C9D29EAAE8}">
           <x14:formula1>
             <xm:f>'[Trade of the year_Final.xlsm]Team'!#REF!</xm:f>
           </x14:formula1>

--- a/assets/ledgerBackup/ledger.xlsx
+++ b/assets/ledgerBackup/ledger.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\loonie\shared\Swapnil\Trade of the year\LedgerBackup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EDB7889-8CD7-4E60-80E9-163A99BE9099}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAB4891F-2B82-4E7F-BBB5-464CE12A846B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" xr2:uid="{2E907125-B2BB-481F-B579-AC5B9BAC7F44}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15750" xr2:uid="{0D287340-9EF1-4348-8141-340AF6D53DDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Ledger" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="29">
+  <futureMetadata name="XLRICHVALUE" count="27">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -240,27 +240,13 @@
         </ext>
       </extLst>
     </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="124"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="126"/>
-        </ext>
-      </extLst>
-    </bk>
   </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="29">
+  <valueMetadata count="27">
     <bk>
       <rc t="2" v="0"/>
     </bk>
@@ -342,18 +328,12 @@
     <bk>
       <rc t="2" v="26"/>
     </bk>
-    <bk>
-      <rc t="2" v="27"/>
-    </bk>
-    <bk>
-      <rc t="2" v="28"/>
-    </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="54">
   <si>
     <t>Total Rows</t>
   </si>
@@ -515,9 +495,6 @@
   </si>
   <si>
     <t>Software &amp; IT Services</t>
-  </si>
-  <si>
-    <t>Cyndi Amaral</t>
   </si>
 </sst>
 </file>
@@ -699,17 +676,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="4">
-          <cell r="C4" t="str">
-            <v>Cyndi Amaral</v>
-          </cell>
-        </row>
         <row r="7">
           <cell r="E7" t="str">
-            <v>XNAS:AAPL</v>
+            <v/>
           </cell>
           <cell r="F7" t="str">
-            <v>XNAS:MAT</v>
+            <v/>
           </cell>
         </row>
       </sheetData>
@@ -813,7 +785,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="127">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="123">
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a26ap2&amp;q=ARCX%3aXRT&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
@@ -2432,109 +2404,6 @@
   </rv>
   <rv s="2">
     <v>121</v>
-  </rv>
-  <rv s="5">
-    <v>en-US</v>
-    <v>a1mou2</v>
-    <v>268435456</v>
-    <v>268435457</v>
-    <v>0</v>
-    <v>Powered by Refinitiv</v>
-    <v>5</v>
-    <v>APPLE INC. (XNAS:AAPL)</v>
-    <v>7</v>
-    <v>8</v>
-    <v>Finance</v>
-    <v>9</v>
-    <v>138.78899999999999</v>
-    <v>53.152500000000003</v>
-    <v>1.2675000000000001</v>
-    <v>-1.77</v>
-    <v>-2.5169999999999997E-3</v>
-    <v>-1.3731E-2</v>
-    <v>-0.32</v>
-    <v>USD</v>
-    <v>Apple Inc. designs, manufactures and markets mobile communication and media devices, personal computers and portable digital music players. The Company sells a range of related software, services, accessories, networking solutions, and third-party digital content and applications. The Company's segments include the Americas, Europe, Greater China, Japan and Rest of Asia Pacific. The Americas segment includes both North and South America. The Europe segment includes European countries, India, the Middle East and Africa. The Greater China segment includes China, Hong Kong and Taiwan. The Rest of Asia Pacific segment includes Australia and the Asian countries not included in the Company's other operating segments. Its products and services include iPhone, iPad, Mac, iPod, Apple Watch, Apple TV, a portfolio of consumer and professional software applications, iPhone OS (iOS), OS X and watchOS operating systems, iCloud, Apple Pay and a range of accessory, service and support offerings.</v>
-    <v>147000</v>
-    <v>Nasdaq Stock Market</v>
-    <v>XNAS</v>
-    <v>XNAS</v>
-    <v>1 Apple Park Way, CUPERTINO, CA, 95014-0642 US</v>
-    <v>130.2242</v>
-    <v>61</v>
-    <v>Computers, Phones &amp; Household Electronics</v>
-    <v>Stock</v>
-    <v>44211.987758668751</v>
-    <v>62</v>
-    <v>127</v>
-    <v>2166836000000</v>
-    <v>APPLE INC.</v>
-    <v>APPLE INC.</v>
-    <v>128.78</v>
-    <v>39.460700000000003</v>
-    <v>128.91</v>
-    <v>127.14</v>
-    <v>126.82</v>
-    <v>16823260000</v>
-    <v>AAPL</v>
-    <v>APPLE INC. (XNAS:AAPL)</v>
-    <v>111598531</v>
-    <v>110487219</v>
-    <v>1977</v>
-  </rv>
-  <rv s="2">
-    <v>123</v>
-  </rv>
-  <rv s="11">
-    <v>en-US</v>
-    <v>a1xarw</v>
-    <v>268435456</v>
-    <v>268435457</v>
-    <v>0</v>
-    <v>Powered by Refinitiv</v>
-    <v>23</v>
-    <v>MATTEL, INC. (XNAS:MAT)</v>
-    <v>7</v>
-    <v>24</v>
-    <v>Finance</v>
-    <v>9</v>
-    <v>19.420000000000002</v>
-    <v>6.53</v>
-    <v>1.4836</v>
-    <v>-0.06</v>
-    <v>0</v>
-    <v>-3.1879999999999999E-3</v>
-    <v>0</v>
-    <v>USD</v>
-    <v>Mattel, Inc. manufactures and markets a range of toy products around the world. The Company's segments are North America; International, and American Girl. Its portfolio of brands and products are grouped into approximately four major brand categories, including Mattel Girls &amp; Boys Brands, Fisher-Price Brands, American Girl Brands and Construction and Arts &amp; Crafts Brands. The Mattel Girls &amp; Boys Brands category includes Barbie fashion dolls, Monster High, Disney Classics, Ever After High, Little Mommy, and Polly Pocket, Hot Wheels and Matchbox vehicles and play sets, and CARS, Disney Planes, BOOMco, Toy Story, Max Steel, WWE Wrestling and DC Comics. The Fisher-Price Brands category includes Fisher-Price, Little People, BabyGear, Laugh &amp; Learn, Imaginext, Thomas &amp; Friends, Blaze and The Monster Machines, Shimmer and Shine, Mickey Mouse Clubhouse, Minnie Mouse, Octonauts, and Power Wheels. The Construction and Arts &amp; Crafts Brands category includes MEGA BLOKS, RoseArt and Board Dudes.</v>
-    <v>24000</v>
-    <v>Nasdaq Stock Market</v>
-    <v>XNAS</v>
-    <v>XNAS</v>
-    <v>333 CONTINENTAL BLVD, EL SEGUNDO, CA, 90245 US</v>
-    <v>18.885000000000002</v>
-    <v>67</v>
-    <v>Leisure Products</v>
-    <v>Stock</v>
-    <v>44211.96788545078</v>
-    <v>68</v>
-    <v>18.329999999999998</v>
-    <v>6664972000</v>
-    <v>MATTEL, INC.</v>
-    <v>MATTEL, INC.</v>
-    <v>18.559999999999999</v>
-    <v>18.82</v>
-    <v>18.760000000000002</v>
-    <v>18.760000000000002</v>
-    <v>348040300</v>
-    <v>MAT</v>
-    <v>MATTEL, INC. (XNAS:MAT)</v>
-    <v>1554192</v>
-    <v>2705788</v>
-    <v>1968</v>
-  </rv>
-  <rv s="2">
-    <v>125</v>
   </rv>
 </rvData>
 </file>
@@ -4423,13 +4292,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E59B3B4-99C3-433A-AF75-361EF2A41015}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4120F10A-97A6-40A3-8005-F42461350273}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:S500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="5" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4470,38 +4339,38 @@
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E2" s="3">
         <f>IFERROR(COUNT(B6:B500)+1+5,"")</f>
-        <v>104</v>
-      </c>
-      <c r="F2" s="7" cm="1">
+        <v>99</v>
+      </c>
+      <c r="F2" s="7" t="str" cm="1">
         <f t="array" ref="F2">IFERROR(INDEX(A6:A500,MATCH(1,(I2=H6:H500)*(I3=I6:I500)*(J2=M6:M500),0))-1000+5,"")</f>
-        <v>101</v>
-      </c>
-      <c r="G2" s="8" cm="1">
+        <v/>
+      </c>
+      <c r="G2" s="8" t="str" cm="1">
         <f t="array" ref="G2">IFERROR(INDEX(A6:A500,MATCH(1,(I2=H6:H500)*(I3=J6:J500),0))-1000+5,"")</f>
-        <v>102</v>
-      </c>
-      <c r="H2" s="7" cm="1">
+        <v/>
+      </c>
+      <c r="H2" s="7" t="str" cm="1">
         <f t="array" ref="H2">IFERROR(INDEX(A6:A500,MATCH(1,(I2=H6:H500)*(I3=I6:I500)*(K2=M6:M500),0))-1000+5,"")</f>
-        <v>103</v>
+        <v/>
       </c>
       <c r="I2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="J2" s="9" t="str">
         <f>[1]Trade!E7</f>
-        <v>XNAS:AAPL</v>
+        <v/>
       </c>
       <c r="K2" s="9" t="str">
         <f>[1]Trade!F7</f>
-        <v>XNAS:MAT</v>
+        <v/>
       </c>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F3" s="11"/>
-      <c r="I3" s="9" t="str">
+      <c r="I3" s="9">
         <f>[1]Trade!C4</f>
-        <v>Cyndi Amaral</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -9882,21 +9751,7 @@
         <f t="shared" si="7"/>
         <v>1094</v>
       </c>
-      <c r="B99" s="2">
-        <v>44199</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D99" s="2">
-        <v>44209</v>
-      </c>
-      <c r="G99" s="12">
-        <v>100000</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="D99" s="2"/>
       <c r="I99" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -9939,21 +9794,7 @@
         <f t="shared" si="7"/>
         <v>1095</v>
       </c>
-      <c r="B100" s="2">
-        <v>44209</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D100" s="2">
-        <v>44203</v>
-      </c>
-      <c r="G100" s="12">
-        <v>35620</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="D100" s="2"/>
       <c r="I100" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -9996,57 +9837,42 @@
         <f t="shared" si="7"/>
         <v>1096</v>
       </c>
-      <c r="B101" s="2">
-        <v>44209</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="D101" s="2"/>
-      <c r="E101" s="10" t="e" vm="28">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F101" s="21">
-        <v>500</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="I101" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Cyndi Amaral</v>
+        <v/>
       </c>
       <c r="J101" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K101" s="1">
+      <c r="K101" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>500</v>
-      </c>
-      <c r="L101" s="6">
+        <v/>
+      </c>
+      <c r="L101" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="M101" s="6" t="str" cm="1">
         <f t="array" ref="M101">IFERROR(IF(F101&lt;&gt;"",_FV(E101,"Exchange abbreviation",TRUE) &amp; ":" &amp;_FV(E101,"Ticker symbol",TRUE),""),E101)</f>
-        <v>XNAS:AAPL</v>
+        <v/>
       </c>
       <c r="N101" s="6" t="str" cm="1">
         <f t="array" ref="N101">IFERROR(IF(F101&lt;&gt;"",_FV(E101,"Industry",TRUE),""),"ETF")</f>
-        <v>Computers, Phones &amp; Household Electronics</v>
+        <v/>
       </c>
       <c r="O101" s="6" t="str" cm="1">
         <f t="array" ref="O101">IFERROR(IF(F101&lt;&gt;"",_FV(E101,"Exchange abbreviation",TRUE),""),LEFT(M101,FIND(":",M101)-1))</f>
-        <v>XNAS</v>
+        <v/>
       </c>
       <c r="P101" s="1" t="str" cm="1">
         <f t="array" ref="P101">IFERROR(IF(F101&lt;&gt;"",_FV(E101,"Instrument type",TRUE),""),"Unknown")</f>
-        <v>Stock</v>
+        <v/>
       </c>
       <c r="Q101" s="1" t="str" cm="1">
         <f t="array" ref="Q101">IFERROR(IF(F101&lt;&gt;"",_FV(E101,"Ticker symbol",TRUE),""), RIGHT(M101,LEN(M101)-FIND(":",M101)))</f>
-        <v>AAPL</v>
+        <v/>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
@@ -10054,34 +9880,22 @@
         <f t="shared" si="7"/>
         <v>1097</v>
       </c>
-      <c r="B102" s="2">
-        <v>44203</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="D102" s="2"/>
-      <c r="G102" s="12">
-        <v>28376</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="I102" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J102" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Cyndi Amaral</v>
+        <v/>
       </c>
       <c r="K102" s="1" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L102" s="6">
+      <c r="L102" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>28376</v>
+        <v/>
       </c>
       <c r="M102" s="6" t="str" cm="1">
         <f t="array" ref="M102">IFERROR(IF(F102&lt;&gt;"",_FV(E102,"Exchange abbreviation",TRUE) &amp; ":" &amp;_FV(E102,"Ticker symbol",TRUE),""),E102)</f>
@@ -10109,57 +9923,42 @@
         <f t="shared" si="7"/>
         <v>1098</v>
       </c>
-      <c r="B103" s="2">
-        <v>44203</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="D103" s="2"/>
-      <c r="E103" s="10" t="e" vm="29">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F103" s="21">
-        <v>400</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="I103" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Cyndi Amaral</v>
+        <v/>
       </c>
       <c r="J103" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K103" s="1">
+      <c r="K103" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>400</v>
-      </c>
-      <c r="L103" s="6">
+        <v/>
+      </c>
+      <c r="L103" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="M103" s="6" t="str" cm="1">
         <f t="array" ref="M103">IFERROR(IF(F103&lt;&gt;"",_FV(E103,"Exchange abbreviation",TRUE) &amp; ":" &amp;_FV(E103,"Ticker symbol",TRUE),""),E103)</f>
-        <v>XNAS:MAT</v>
+        <v/>
       </c>
       <c r="N103" s="6" t="str" cm="1">
         <f t="array" ref="N103">IFERROR(IF(F103&lt;&gt;"",_FV(E103,"Industry",TRUE),""),"ETF")</f>
-        <v>Leisure Products</v>
+        <v/>
       </c>
       <c r="O103" s="6" t="str" cm="1">
         <f t="array" ref="O103">IFERROR(IF(F103&lt;&gt;"",_FV(E103,"Exchange abbreviation",TRUE),""),LEFT(M103,FIND(":",M103)-1))</f>
-        <v>XNAS</v>
+        <v/>
       </c>
       <c r="P103" s="1" t="str" cm="1">
         <f t="array" ref="P103">IFERROR(IF(F103&lt;&gt;"",_FV(E103,"Instrument type",TRUE),""),"Unknown")</f>
-        <v>Stock</v>
+        <v/>
       </c>
       <c r="Q103" s="1" t="str" cm="1">
         <f t="array" ref="Q103">IFERROR(IF(F103&lt;&gt;"",_FV(E103,"Ticker symbol",TRUE),""), RIGHT(M103,LEN(M103)-FIND(":",M103)))</f>
-        <v>MAT</v>
+        <v/>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
@@ -10167,6 +9966,7 @@
         <f t="shared" si="7"/>
         <v>1099</v>
       </c>
+      <c r="D104" s="2"/>
       <c r="I104" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -26838,7 +26638,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F1048576" xr:uid="{D1AA580E-79B9-442F-8532-44ACFAA7A2AF}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F1048576" xr:uid="{10459F92-ABB4-4EE5-8213-332281930A66}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -26847,7 +26647,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{56251C2C-AF6E-4872-86CF-F3C9D29EAAE8}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1B971877-33BC-4F9C-ABED-D5EBBD7C84A7}">
           <x14:formula1>
             <xm:f>'[Trade of the year_Final.xlsm]Team'!#REF!</xm:f>
           </x14:formula1>

--- a/assets/ledgerBackup/ledger.xlsx
+++ b/assets/ledgerBackup/ledger.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\loonie\shared\Swapnil\Trade of the year\LedgerBackup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAB4891F-2B82-4E7F-BBB5-464CE12A846B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EDDDBBF-0225-4E63-B3D4-2628AD18CAEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15750" xr2:uid="{0D287340-9EF1-4348-8141-340AF6D53DDF}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{640C24D0-235B-4FC4-88E8-20752BC98C4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Ledger" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="27">
+  <futureMetadata name="XLRICHVALUE" count="28">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -240,13 +240,20 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="125"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="27">
+  <valueMetadata count="28">
     <bk>
       <rc t="2" v="0"/>
     </bk>
@@ -328,12 +335,15 @@
     <bk>
       <rc t="2" v="26"/>
     </bk>
+    <bk>
+      <rc t="2" v="27"/>
+    </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="55">
   <si>
     <t>Total Rows</t>
   </si>
@@ -495,6 +505,9 @@
   </si>
   <si>
     <t>Software &amp; IT Services</t>
+  </si>
+  <si>
+    <t>Cyndi Amaral</t>
   </si>
 </sst>
 </file>
@@ -666,8 +679,8 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Trade"/>
+      <sheetName val="Ledger"/>
       <sheetName val="Live"/>
-      <sheetName val="Ledger"/>
       <sheetName val="Stock1"/>
       <sheetName val="Stock2"/>
       <sheetName val="Stock3"/>
@@ -676,9 +689,14 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="4">
+          <cell r="C4" t="str">
+            <v>Cyndi Amaral</v>
+          </cell>
+        </row>
         <row r="7">
           <cell r="E7" t="str">
-            <v/>
+            <v>XNAS:WOOF</v>
           </cell>
           <cell r="F7" t="str">
             <v/>
@@ -785,7 +803,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="123">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="126">
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a26ap2&amp;q=ARCX%3aXRT&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
@@ -2405,11 +2423,62 @@
   <rv s="2">
     <v>121</v>
   </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=bwzyp2&amp;q=XNAS%3aWOOF&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="13">
+    <v>en-US</v>
+    <v>bwzyp2</v>
+    <v>268435456</v>
+    <v>268435457</v>
+    <v>0</v>
+    <v>Powered by Refinitiv</v>
+    <v>29</v>
+    <v>PETCO HEALTH AND WELLNESS COMPANY, INC. (XNAS:WOOF)</v>
+    <v>11</v>
+    <v>30</v>
+    <v>Finance</v>
+    <v>31</v>
+    <v>31.08</v>
+    <v>26</v>
+    <v>-0.86</v>
+    <v>-9.3109999999999998E-3</v>
+    <v>-3.1036000000000001E-2</v>
+    <v>-0.25</v>
+    <v>USD</v>
+    <v>Petco Health and Wellness Company, Inc., formerly Pet Acquisition LLC, is a pet health and wellness company. The Company, through its multi-channel platform, provides products and services for pets. It offers various services, including grooming, insurance, pet adoption as well as in-store and online training. The Company also offers veterinary service platform, which includes full-service veterinary hospitals, Vetco clinics, and tele-veterinarian services. The Company operates approximately 1,500 pet care centers across the United States (U.S), Mexico and Puerto Rico, which also includes a network of more than 100 in-store veterinary hospitals, and offers a complete resource for pet health and wellness through Petco.com Website and the Petco app. The Company also operates an independent nonprofit organization, Petco Foundation.</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>10850 Via Frontera, SAN DIEGO, CA, 92127 US</v>
+    <v>28.1</v>
+    <v>Specialty Retailers</v>
+    <v>Stock</v>
+    <v>44215.930181226562</v>
+    <v>123</v>
+    <v>25.57</v>
+    <v>6074701000</v>
+    <v>PETCO HEALTH AND WELLNESS COMPANY, INC.</v>
+    <v>PETCO HEALTH AND WELLNESS COMPANY, INC.</v>
+    <v>27.9</v>
+    <v>27.71</v>
+    <v>26.85</v>
+    <v>26.6</v>
+    <v>219224100</v>
+    <v>WOOF</v>
+    <v>PETCO HEALTH AND WELLNESS COMPANY, INC. (XNAS:WOOF)</v>
+    <v>8385662</v>
+    <v>0</v>
+  </rv>
+  <rv s="2">
+    <v>124</v>
+  </rv>
 </rvData>
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="13">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="14">
   <s t="_hyperlink">
     <k n="Address" t="s"/>
     <k n="Text" t="s"/>
@@ -2838,12 +2907,56 @@
     <k n="Volume"/>
     <k n="Year incorporated"/>
   </s>
+  <s t="_linkedentitycore">
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%EntitySubDomainId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Change"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+  </s>
 </rvStructures>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbArrays count="9">
+  <spbArrays count="10">
     <a count="38">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
@@ -3255,8 +3368,52 @@
       <v t="s">%ProviderInfo</v>
       <v t="s">_Display</v>
     </a>
+    <a count="42">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%EntitySubDomainId</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+      <v t="s">_Display</v>
+    </a>
   </spbArrays>
-  <spbData count="29">
+  <spbData count="32">
     <spb s="0">
       <v>0</v>
     </spb>
@@ -3626,12 +3783,48 @@
       <v>1</v>
       <v>5</v>
     </spb>
+    <spb s="0">
+      <v>9</v>
+    </spb>
+    <spb s="19">
+      <v>1</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>9</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+    </spb>
+    <spb s="8">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq Last Sale</v>
+      <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
   </spbData>
 </supportingPropertyBags>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="19">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="20">
   <s>
     <k n="^Order" t="spba"/>
   </s>
@@ -3921,6 +4114,29 @@
     <k n="Price (Extended hours)" t="s"/>
     <k n="Change (Extended hours)" t="s"/>
     <k n="Change % (Extended hours)" t="s"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="_DisplayString" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="%EntityServiceId" t="i"/>
+    <k n="%EntitySubDomainId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
 </spbStructures>
 </file>
@@ -4292,13 +4508,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4120F10A-97A6-40A3-8005-F42461350273}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B2C694-4124-4507-A8B7-1AC318189B38}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:S500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F100" sqref="F100"/>
+      <pane ySplit="5" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4339,15 +4555,15 @@
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E2" s="3">
         <f>IFERROR(COUNT(B6:B500)+1+5,"")</f>
-        <v>99</v>
-      </c>
-      <c r="F2" s="7" t="str" cm="1">
+        <v>102</v>
+      </c>
+      <c r="F2" s="7" cm="1">
         <f t="array" ref="F2">IFERROR(INDEX(A6:A500,MATCH(1,(I2=H6:H500)*(I3=I6:I500)*(J2=M6:M500),0))-1000+5,"")</f>
-        <v/>
-      </c>
-      <c r="G2" s="8" t="str" cm="1">
+        <v>101</v>
+      </c>
+      <c r="G2" s="8" cm="1">
         <f t="array" ref="G2">IFERROR(INDEX(A6:A500,MATCH(1,(I2=H6:H500)*(I3=J6:J500),0))-1000+5,"")</f>
-        <v/>
+        <v>100</v>
       </c>
       <c r="H2" s="7" t="str" cm="1">
         <f t="array" ref="H2">IFERROR(INDEX(A6:A500,MATCH(1,(I2=H6:H500)*(I3=I6:I500)*(K2=M6:M500),0))-1000+5,"")</f>
@@ -4358,7 +4574,7 @@
       </c>
       <c r="J2" s="9" t="str">
         <f>[1]Trade!E7</f>
-        <v/>
+        <v>XNAS:WOOF</v>
       </c>
       <c r="K2" s="9" t="str">
         <f>[1]Trade!F7</f>
@@ -4368,9 +4584,9 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F3" s="11"/>
-      <c r="I3" s="9">
+      <c r="I3" s="9" t="str">
         <f>[1]Trade!C4</f>
-        <v>0</v>
+        <v>Cyndi Amaral</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -9751,7 +9967,21 @@
         <f t="shared" si="7"/>
         <v>1094</v>
       </c>
-      <c r="D99" s="2"/>
+      <c r="B99" s="2">
+        <v>44199</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D99" s="2">
+        <v>44210</v>
+      </c>
+      <c r="G99" s="12">
+        <v>100000</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I99" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -9794,22 +10024,34 @@
         <f t="shared" si="7"/>
         <v>1095</v>
       </c>
+      <c r="B100" s="2">
+        <v>44210</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="D100" s="2"/>
+      <c r="G100" s="12">
+        <v>73750</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="I100" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J100" s="1" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>Cyndi Amaral</v>
       </c>
       <c r="K100" s="1" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L100" s="6" t="str">
+      <c r="L100" s="6">
         <f t="shared" si="9"/>
-        <v/>
+        <v>73750</v>
       </c>
       <c r="M100" s="6" t="str" cm="1">
         <f t="array" ref="M100">IFERROR(IF(F100&lt;&gt;"",_FV(E100,"Exchange abbreviation",TRUE) &amp; ":" &amp;_FV(E100,"Ticker symbol",TRUE),""),E100)</f>
@@ -9837,42 +10079,57 @@
         <f t="shared" si="7"/>
         <v>1096</v>
       </c>
+      <c r="B101" s="2">
+        <v>44210</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="D101" s="2"/>
+      <c r="E101" s="10" t="e" vm="28">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F101" s="21">
+        <v>1000</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="I101" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>Cyndi Amaral</v>
       </c>
       <c r="J101" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K101" s="1" t="str">
+      <c r="K101" s="1">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="L101" s="6" t="str">
+        <v>1000</v>
+      </c>
+      <c r="L101" s="6">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M101" s="6" t="str" cm="1">
         <f t="array" ref="M101">IFERROR(IF(F101&lt;&gt;"",_FV(E101,"Exchange abbreviation",TRUE) &amp; ":" &amp;_FV(E101,"Ticker symbol",TRUE),""),E101)</f>
-        <v/>
+        <v>XNAS:WOOF</v>
       </c>
       <c r="N101" s="6" t="str" cm="1">
         <f t="array" ref="N101">IFERROR(IF(F101&lt;&gt;"",_FV(E101,"Industry",TRUE),""),"ETF")</f>
-        <v/>
+        <v>Specialty Retailers</v>
       </c>
       <c r="O101" s="6" t="str" cm="1">
         <f t="array" ref="O101">IFERROR(IF(F101&lt;&gt;"",_FV(E101,"Exchange abbreviation",TRUE),""),LEFT(M101,FIND(":",M101)-1))</f>
-        <v/>
+        <v>XNAS</v>
       </c>
       <c r="P101" s="1" t="str" cm="1">
         <f t="array" ref="P101">IFERROR(IF(F101&lt;&gt;"",_FV(E101,"Instrument type",TRUE),""),"Unknown")</f>
-        <v/>
+        <v>Stock</v>
       </c>
       <c r="Q101" s="1" t="str" cm="1">
         <f t="array" ref="Q101">IFERROR(IF(F101&lt;&gt;"",_FV(E101,"Ticker symbol",TRUE),""), RIGHT(M101,LEN(M101)-FIND(":",M101)))</f>
-        <v/>
+        <v>WOOF</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
@@ -26638,7 +26895,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F1048576" xr:uid="{10459F92-ABB4-4EE5-8213-332281930A66}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F1048576" xr:uid="{31B21200-9D97-4566-8D3F-2EC26F15D97D}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -26647,7 +26904,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1B971877-33BC-4F9C-ABED-D5EBBD7C84A7}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{963442C1-261C-413F-B01E-96DDA5A7EC1E}">
           <x14:formula1>
             <xm:f>'[Trade of the year_Final.xlsm]Team'!#REF!</xm:f>
           </x14:formula1>

--- a/assets/ledgerBackup/ledger.xlsx
+++ b/assets/ledgerBackup/ledger.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\loonie\shared\Swapnil\Trade of the year\LedgerBackup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EDDDBBF-0225-4E63-B3D4-2628AD18CAEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{496BAB31-D9A5-4086-B853-41EAF205814A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{640C24D0-235B-4FC4-88E8-20752BC98C4F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" xr2:uid="{946E5216-B2B1-4166-849D-F5F27159BFA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Ledger" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="28">
+  <futureMetadata name="XLRICHVALUE" count="27">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -240,20 +240,13 @@
         </ext>
       </extLst>
     </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="125"/>
-        </ext>
-      </extLst>
-    </bk>
   </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="28">
+  <valueMetadata count="27">
     <bk>
       <rc t="2" v="0"/>
     </bk>
@@ -335,15 +328,12 @@
     <bk>
       <rc t="2" v="26"/>
     </bk>
-    <bk>
-      <rc t="2" v="27"/>
-    </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="54">
   <si>
     <t>Total Rows</t>
   </si>
@@ -505,9 +495,6 @@
   </si>
   <si>
     <t>Software &amp; IT Services</t>
-  </si>
-  <si>
-    <t>Cyndi Amaral</t>
   </si>
 </sst>
 </file>
@@ -689,14 +676,9 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="4">
-          <cell r="C4" t="str">
-            <v>Cyndi Amaral</v>
-          </cell>
-        </row>
         <row r="7">
           <cell r="E7" t="str">
-            <v>XNAS:WOOF</v>
+            <v/>
           </cell>
           <cell r="F7" t="str">
             <v/>
@@ -803,7 +785,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="126">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="123">
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a26ap2&amp;q=ARCX%3aXRT&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
@@ -2423,62 +2405,11 @@
   <rv s="2">
     <v>121</v>
   </rv>
-  <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=bwzyp2&amp;q=XNAS%3aWOOF&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="13">
-    <v>en-US</v>
-    <v>bwzyp2</v>
-    <v>268435456</v>
-    <v>268435457</v>
-    <v>0</v>
-    <v>Powered by Refinitiv</v>
-    <v>29</v>
-    <v>PETCO HEALTH AND WELLNESS COMPANY, INC. (XNAS:WOOF)</v>
-    <v>11</v>
-    <v>30</v>
-    <v>Finance</v>
-    <v>31</v>
-    <v>31.08</v>
-    <v>26</v>
-    <v>-0.86</v>
-    <v>-9.3109999999999998E-3</v>
-    <v>-3.1036000000000001E-2</v>
-    <v>-0.25</v>
-    <v>USD</v>
-    <v>Petco Health and Wellness Company, Inc., formerly Pet Acquisition LLC, is a pet health and wellness company. The Company, through its multi-channel platform, provides products and services for pets. It offers various services, including grooming, insurance, pet adoption as well as in-store and online training. The Company also offers veterinary service platform, which includes full-service veterinary hospitals, Vetco clinics, and tele-veterinarian services. The Company operates approximately 1,500 pet care centers across the United States (U.S), Mexico and Puerto Rico, which also includes a network of more than 100 in-store veterinary hospitals, and offers a complete resource for pet health and wellness through Petco.com Website and the Petco app. The Company also operates an independent nonprofit organization, Petco Foundation.</v>
-    <v>Nasdaq Stock Market</v>
-    <v>XNAS</v>
-    <v>XNAS</v>
-    <v>10850 Via Frontera, SAN DIEGO, CA, 92127 US</v>
-    <v>28.1</v>
-    <v>Specialty Retailers</v>
-    <v>Stock</v>
-    <v>44215.930181226562</v>
-    <v>123</v>
-    <v>25.57</v>
-    <v>6074701000</v>
-    <v>PETCO HEALTH AND WELLNESS COMPANY, INC.</v>
-    <v>PETCO HEALTH AND WELLNESS COMPANY, INC.</v>
-    <v>27.9</v>
-    <v>27.71</v>
-    <v>26.85</v>
-    <v>26.6</v>
-    <v>219224100</v>
-    <v>WOOF</v>
-    <v>PETCO HEALTH AND WELLNESS COMPANY, INC. (XNAS:WOOF)</v>
-    <v>8385662</v>
-    <v>0</v>
-  </rv>
-  <rv s="2">
-    <v>124</v>
-  </rv>
 </rvData>
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="14">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="13">
   <s t="_hyperlink">
     <k n="Address" t="s"/>
     <k n="Text" t="s"/>
@@ -2907,56 +2838,12 @@
     <k n="Volume"/>
     <k n="Year incorporated"/>
   </s>
-  <s t="_linkedentitycore">
-    <k n="%EntityCulture" t="s"/>
-    <k n="%EntityId" t="s"/>
-    <k n="%EntityServiceId"/>
-    <k n="%EntitySubDomainId"/>
-    <k n="%IsRefreshable" t="b"/>
-    <k n="%ProviderInfo" t="s"/>
-    <k n="_Display" t="spb"/>
-    <k n="_DisplayString" t="s"/>
-    <k n="_Flags" t="spb"/>
-    <k n="_Format" t="spb"/>
-    <k n="_Icon" t="s"/>
-    <k n="_SubLabel" t="spb"/>
-    <k n="52 week high"/>
-    <k n="52 week low"/>
-    <k n="Change"/>
-    <k n="Change % (Extended hours)"/>
-    <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Currency" t="s"/>
-    <k n="Description" t="s"/>
-    <k n="Exchange" t="s"/>
-    <k n="Exchange abbreviation" t="s"/>
-    <k n="ExchangeID" t="s"/>
-    <k n="Headquarters" t="s"/>
-    <k n="High"/>
-    <k n="Industry" t="s"/>
-    <k n="Instrument type" t="s"/>
-    <k n="Last trade time"/>
-    <k n="LearnMoreOnLink" t="r"/>
-    <k n="Low"/>
-    <k n="Market cap"/>
-    <k n="Name" t="s"/>
-    <k n="Official name" t="s"/>
-    <k n="Open"/>
-    <k n="Previous close"/>
-    <k n="Price"/>
-    <k n="Price (Extended hours)"/>
-    <k n="Shares outstanding"/>
-    <k n="Ticker symbol" t="s"/>
-    <k n="UniqueName" t="s"/>
-    <k n="Volume"/>
-    <k n="Volume average"/>
-  </s>
 </rvStructures>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbArrays count="10">
+  <spbArrays count="9">
     <a count="38">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
@@ -3368,52 +3255,8 @@
       <v t="s">%ProviderInfo</v>
       <v t="s">_Display</v>
     </a>
-    <a count="42">
-      <v t="s">%EntityServiceId</v>
-      <v t="s">_Format</v>
-      <v t="s">%EntitySubDomainId</v>
-      <v t="s">%EntityCulture</v>
-      <v t="s">%IsRefreshable</v>
-      <v t="s">%EntityId</v>
-      <v t="s">_Icon</v>
-      <v t="s">Name</v>
-      <v t="s">_SubLabel</v>
-      <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
-      <v t="s">Exchange</v>
-      <v t="s">Official name</v>
-      <v t="s">Last trade time</v>
-      <v t="s">Ticker symbol</v>
-      <v t="s">Exchange abbreviation</v>
-      <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
-      <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
-      <v t="s">Currency</v>
-      <v t="s">Previous close</v>
-      <v t="s">Open</v>
-      <v t="s">High</v>
-      <v t="s">Low</v>
-      <v t="s">52 week high</v>
-      <v t="s">52 week low</v>
-      <v t="s">Volume</v>
-      <v t="s">Volume average</v>
-      <v t="s">Market cap</v>
-      <v t="s">Shares outstanding</v>
-      <v t="s">Description</v>
-      <v t="s">Headquarters</v>
-      <v t="s">Industry</v>
-      <v t="s">Instrument type</v>
-      <v t="s">_Flags</v>
-      <v t="s">UniqueName</v>
-      <v t="s">_DisplayString</v>
-      <v t="s">LearnMoreOnLink</v>
-      <v t="s">ExchangeID</v>
-      <v t="s">%ProviderInfo</v>
-      <v t="s">_Display</v>
-    </a>
   </spbArrays>
-  <spbData count="32">
+  <spbData count="29">
     <spb s="0">
       <v>0</v>
     </spb>
@@ -3783,48 +3626,12 @@
       <v>1</v>
       <v>5</v>
     </spb>
-    <spb s="0">
-      <v>9</v>
-    </spb>
-    <spb s="19">
-      <v>1</v>
-      <v>1</v>
-      <v>3</v>
-      <v>1</v>
-      <v>1</v>
-      <v>1</v>
-      <v>4</v>
-      <v>5</v>
-      <v>6</v>
-      <v>1</v>
-      <v>1</v>
-      <v>1</v>
-      <v>4</v>
-      <v>7</v>
-      <v>8</v>
-      <v>9</v>
-      <v>9</v>
-      <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
-    </spb>
-    <spb s="8">
-      <v>at close</v>
-      <v>from previous close</v>
-      <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
-      <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
-    </spb>
   </spbData>
 </supportingPropertyBags>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="20">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="19">
   <s>
     <k n="^Order" t="spba"/>
   </s>
@@ -4114,29 +3921,6 @@
     <k n="Price (Extended hours)" t="s"/>
     <k n="Change (Extended hours)" t="s"/>
     <k n="Change % (Extended hours)" t="s"/>
-  </s>
-  <s>
-    <k n="Low" t="i"/>
-    <k n="High" t="i"/>
-    <k n="Name" t="i"/>
-    <k n="Open" t="i"/>
-    <k n="Price" t="i"/>
-    <k n="Change" t="i"/>
-    <k n="Volume" t="i"/>
-    <k n="Change (%)" t="i"/>
-    <k n="Market cap" t="i"/>
-    <k n="52 week low" t="i"/>
-    <k n="52 week high" t="i"/>
-    <k n="Previous close" t="i"/>
-    <k n="Volume average" t="i"/>
-    <k n="_DisplayString" t="i"/>
-    <k n="Last trade time" t="i"/>
-    <k n="%EntityServiceId" t="i"/>
-    <k n="%EntitySubDomainId" t="i"/>
-    <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
 </spbStructures>
 </file>
@@ -4508,13 +4292,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B2C694-4124-4507-A8B7-1AC318189B38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952A5B83-4EEF-40E3-AFC3-7AF5F86E54FB}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:S500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="5" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4555,15 +4339,15 @@
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E2" s="3">
         <f>IFERROR(COUNT(B6:B500)+1+5,"")</f>
-        <v>102</v>
-      </c>
-      <c r="F2" s="7" cm="1">
+        <v>99</v>
+      </c>
+      <c r="F2" s="7" t="str" cm="1">
         <f t="array" ref="F2">IFERROR(INDEX(A6:A500,MATCH(1,(I2=H6:H500)*(I3=I6:I500)*(J2=M6:M500),0))-1000+5,"")</f>
-        <v>101</v>
-      </c>
-      <c r="G2" s="8" cm="1">
+        <v/>
+      </c>
+      <c r="G2" s="8" t="str" cm="1">
         <f t="array" ref="G2">IFERROR(INDEX(A6:A500,MATCH(1,(I2=H6:H500)*(I3=J6:J500),0))-1000+5,"")</f>
-        <v>100</v>
+        <v/>
       </c>
       <c r="H2" s="7" t="str" cm="1">
         <f t="array" ref="H2">IFERROR(INDEX(A6:A500,MATCH(1,(I2=H6:H500)*(I3=I6:I500)*(K2=M6:M500),0))-1000+5,"")</f>
@@ -4574,7 +4358,7 @@
       </c>
       <c r="J2" s="9" t="str">
         <f>[1]Trade!E7</f>
-        <v>XNAS:WOOF</v>
+        <v/>
       </c>
       <c r="K2" s="9" t="str">
         <f>[1]Trade!F7</f>
@@ -4584,9 +4368,9 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F3" s="11"/>
-      <c r="I3" s="9" t="str">
+      <c r="I3" s="9">
         <f>[1]Trade!C4</f>
-        <v>Cyndi Amaral</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -9967,21 +9751,7 @@
         <f t="shared" si="7"/>
         <v>1094</v>
       </c>
-      <c r="B99" s="2">
-        <v>44199</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D99" s="2">
-        <v>44210</v>
-      </c>
-      <c r="G99" s="12">
-        <v>100000</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="D99" s="2"/>
       <c r="I99" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -10024,34 +9794,22 @@
         <f t="shared" si="7"/>
         <v>1095</v>
       </c>
-      <c r="B100" s="2">
-        <v>44210</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="D100" s="2"/>
-      <c r="G100" s="12">
-        <v>73750</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="I100" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J100" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Cyndi Amaral</v>
+        <v/>
       </c>
       <c r="K100" s="1" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L100" s="6">
+      <c r="L100" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>73750</v>
+        <v/>
       </c>
       <c r="M100" s="6" t="str" cm="1">
         <f t="array" ref="M100">IFERROR(IF(F100&lt;&gt;"",_FV(E100,"Exchange abbreviation",TRUE) &amp; ":" &amp;_FV(E100,"Ticker symbol",TRUE),""),E100)</f>
@@ -10079,57 +9837,42 @@
         <f t="shared" si="7"/>
         <v>1096</v>
       </c>
-      <c r="B101" s="2">
-        <v>44210</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="D101" s="2"/>
-      <c r="E101" s="10" t="e" vm="28">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F101" s="21">
-        <v>1000</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="I101" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Cyndi Amaral</v>
+        <v/>
       </c>
       <c r="J101" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K101" s="1">
+      <c r="K101" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>1000</v>
-      </c>
-      <c r="L101" s="6">
+        <v/>
+      </c>
+      <c r="L101" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="M101" s="6" t="str" cm="1">
         <f t="array" ref="M101">IFERROR(IF(F101&lt;&gt;"",_FV(E101,"Exchange abbreviation",TRUE) &amp; ":" &amp;_FV(E101,"Ticker symbol",TRUE),""),E101)</f>
-        <v>XNAS:WOOF</v>
+        <v/>
       </c>
       <c r="N101" s="6" t="str" cm="1">
         <f t="array" ref="N101">IFERROR(IF(F101&lt;&gt;"",_FV(E101,"Industry",TRUE),""),"ETF")</f>
-        <v>Specialty Retailers</v>
+        <v/>
       </c>
       <c r="O101" s="6" t="str" cm="1">
         <f t="array" ref="O101">IFERROR(IF(F101&lt;&gt;"",_FV(E101,"Exchange abbreviation",TRUE),""),LEFT(M101,FIND(":",M101)-1))</f>
-        <v>XNAS</v>
+        <v/>
       </c>
       <c r="P101" s="1" t="str" cm="1">
         <f t="array" ref="P101">IFERROR(IF(F101&lt;&gt;"",_FV(E101,"Instrument type",TRUE),""),"Unknown")</f>
-        <v>Stock</v>
+        <v/>
       </c>
       <c r="Q101" s="1" t="str" cm="1">
         <f t="array" ref="Q101">IFERROR(IF(F101&lt;&gt;"",_FV(E101,"Ticker symbol",TRUE),""), RIGHT(M101,LEN(M101)-FIND(":",M101)))</f>
-        <v>WOOF</v>
+        <v/>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
@@ -26895,7 +26638,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F1048576" xr:uid="{31B21200-9D97-4566-8D3F-2EC26F15D97D}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F1048576" xr:uid="{02F9BEF3-E9F8-452B-8678-73B9F2AAF26C}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -26904,7 +26647,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{963442C1-261C-413F-B01E-96DDA5A7EC1E}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A9DE8597-7A16-428C-811B-E6A1F71CBCBC}">
           <x14:formula1>
             <xm:f>'[Trade of the year_Final.xlsm]Team'!#REF!</xm:f>
           </x14:formula1>

--- a/assets/ledgerBackup/ledger.xlsx
+++ b/assets/ledgerBackup/ledger.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\loonie\shared\Swapnil\Trade of the year\LedgerBackup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{496BAB31-D9A5-4086-B853-41EAF205814A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DD31AC2-3253-4B98-94A8-79E55FE9A4F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" xr2:uid="{946E5216-B2B1-4166-849D-F5F27159BFA0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C5CD832B-9B7C-4AF1-873C-2958DE7089FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Ledger" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="27">
+  <futureMetadata name="XLRICHVALUE" count="28">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -240,13 +240,20 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="124"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="27">
+  <valueMetadata count="28">
     <bk>
       <rc t="2" v="0"/>
     </bk>
@@ -328,12 +335,15 @@
     <bk>
       <rc t="2" v="26"/>
     </bk>
+    <bk>
+      <rc t="2" v="27"/>
+    </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="54">
   <si>
     <t>Total Rows</t>
   </si>
@@ -502,8 +512,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -576,7 +586,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -592,10 +602,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -610,10 +620,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -631,13 +641,13 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -676,9 +686,14 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="4">
+          <cell r="C4" t="str">
+            <v>Tyler Blakeley</v>
+          </cell>
+        </row>
         <row r="7">
           <cell r="E7" t="str">
-            <v/>
+            <v>XNYS:SHOP</v>
           </cell>
           <cell r="F7" t="str">
             <v/>
@@ -785,7 +800,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="123">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="125">
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a26ap2&amp;q=ARCX%3aXRT&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
@@ -2405,6 +2420,58 @@
   <rv s="2">
     <v>121</v>
   </rv>
+  <rv s="5">
+    <v>en-US</v>
+    <v>a22wz2</v>
+    <v>268435456</v>
+    <v>268435457</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>5</v>
+    <v>SHOPIFY INC. (XNYS:SHOP)</v>
+    <v>7</v>
+    <v>8</v>
+    <v>Finance</v>
+    <v>9</v>
+    <v>1285.1849999999999</v>
+    <v>305.30009999999999</v>
+    <v>1.5489999999999999</v>
+    <v>-1.45</v>
+    <v>1.838E-3</v>
+    <v>-1.2099999999999999E-3</v>
+    <v>2.2000000000000002</v>
+    <v>USD</v>
+    <v>Shopify Inc. (Shopify) provides a cloud-based, multi-channel commerce platform designed for small and medium-sized businesses. The Company offers subscription solutions and merchant solutions. The Company's software is used by merchants to run their business across all of their sales channels, including Web and mobile storefronts, physical retail locations, social media storefronts and marketplaces. The Shopify platform provides merchants with a single view of their business and customers across all of their sales channels and enables them to manage products and inventory, process orders and payments, ship orders, build customer relationships and leverage analytics and reporting all from one integrated back office. The Shopify platform includes a mobile-optimized checkout system, which is designed to enable merchants' consumers to buy products over mobile Websites.</v>
+    <v>5000</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>151 O'connor Street, Ground Floor, OTTAWA, ON, K2P 2L8 CA</v>
+    <v>1201.6099999999999</v>
+    <v>15</v>
+    <v>Software &amp; IT Services</v>
+    <v>Stock</v>
+    <v>44219.041523957814</v>
+    <v>16</v>
+    <v>1177.1555000000001</v>
+    <v>145892300000</v>
+    <v>SHOPIFY INC.</v>
+    <v>SHOPIFY INC.</v>
+    <v>1187.52</v>
+    <v>764.59439999999995</v>
+    <v>1198.1500000000001</v>
+    <v>1196.7</v>
+    <v>1198.9000000000001</v>
+    <v>121912200</v>
+    <v>SHOP</v>
+    <v>SHOPIFY INC. (XNYS:SHOP)</v>
+    <v>624747</v>
+    <v>1318342</v>
+    <v>2004</v>
+  </rv>
+  <rv s="2">
+    <v>123</v>
+  </rv>
 </rvData>
 </file>
 
@@ -3929,7 +3996,7 @@
 <richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <dxfs count="12">
     <x:dxf>
-      <x:numFmt numFmtId="167" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+      <x:numFmt numFmtId="168" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </x:dxf>
     <x:dxf>
       <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
@@ -3941,10 +4008,10 @@
       <x:numFmt numFmtId="14" formatCode="0.00%"/>
     </x:dxf>
     <x:dxf>
-      <x:numFmt numFmtId="166" formatCode="_([$$-409]* #,##0_);_([$$-409]* \(#,##0\);_([$$-409]* &quot;-&quot;_);_(@_)"/>
+      <x:numFmt numFmtId="167" formatCode="_([$$-409]* #,##0_);_([$$-409]* \(#,##0\);_([$$-409]* &quot;-&quot;_);_(@_)"/>
     </x:dxf>
     <x:dxf>
-      <x:numFmt numFmtId="165" formatCode="yyyy/mm/dd\ h:mm"/>
+      <x:numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
     </x:dxf>
     <x:dxf>
       <x:numFmt numFmtId="2" formatCode="0.00"/>
@@ -3953,16 +4020,16 @@
       <x:numFmt numFmtId="1" formatCode="0"/>
     </x:dxf>
     <x:dxf>
-      <x:numFmt numFmtId="168" formatCode="_-[$$-1009]* #,##0_-;\-[$$-1009]* #,##0_-;_-[$$-1009]* &quot;-&quot;_-;_-@_-"/>
+      <x:numFmt numFmtId="169" formatCode="_-[$$-1009]* #,##0_-;\-[$$-1009]* #,##0_-;_-[$$-1009]* &quot;-&quot;_-;_-@_-"/>
     </x:dxf>
     <x:dxf>
-      <x:numFmt numFmtId="170" formatCode="_-[$Rp-3809]* #,##0.00_-;\-[$Rp-3809]* #,##0.00_-;_-[$Rp-3809]* &quot;-&quot;??_-;_-@_-"/>
+      <x:numFmt numFmtId="171" formatCode="_-[$Rp-3809]* #,##0.00_-;\-[$Rp-3809]* #,##0.00_-;_-[$Rp-3809]* &quot;-&quot;??_-;_-@_-"/>
     </x:dxf>
     <x:dxf>
-      <x:numFmt numFmtId="169" formatCode="_-[$Rp-3809]* #,##0_-;\-[$Rp-3809]* #,##0_-;_-[$Rp-3809]* &quot;-&quot;_-;_-@_-"/>
+      <x:numFmt numFmtId="170" formatCode="_-[$Rp-3809]* #,##0_-;\-[$Rp-3809]* #,##0_-;_-[$Rp-3809]* &quot;-&quot;_-;_-@_-"/>
     </x:dxf>
     <x:dxf>
-      <x:numFmt numFmtId="171" formatCode="_ [$¥-804]* #,##0_ ;_ [$¥-804]* \-#,##0_ ;_ [$¥-804]* &quot;-&quot;_ ;_ @_ "/>
+      <x:numFmt numFmtId="172" formatCode="_ [$¥-804]* #,##0_ ;_ [$¥-804]* \-#,##0_ ;_ [$¥-804]* &quot;-&quot;_ ;_ @_ "/>
     </x:dxf>
   </dxfs>
   <richProperties>
@@ -4292,13 +4359,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952A5B83-4EEF-40E3-AFC3-7AF5F86E54FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8C7AB4-970C-4F24-90D6-7303D9F38997}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:S500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E101" sqref="E101"/>
+      <pane ySplit="5" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4339,15 +4406,15 @@
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E2" s="3">
         <f>IFERROR(COUNT(B6:B500)+1+5,"")</f>
+        <v>101</v>
+      </c>
+      <c r="F2" s="7" cm="1">
+        <f t="array" ref="F2">IFERROR(INDEX(A6:A500,MATCH(1,(I2=H6:H500)*(I3=I6:I500)*(J2=M6:M500),0))-1000+5,"")</f>
+        <v>100</v>
+      </c>
+      <c r="G2" s="8" cm="1">
+        <f t="array" ref="G2">IFERROR(INDEX(A6:A500,MATCH(1,(I2=H6:H500)*(I3=J6:J500),0))-1000+5,"")</f>
         <v>99</v>
-      </c>
-      <c r="F2" s="7" t="str" cm="1">
-        <f t="array" ref="F2">IFERROR(INDEX(A6:A500,MATCH(1,(I2=H6:H500)*(I3=I6:I500)*(J2=M6:M500),0))-1000+5,"")</f>
-        <v/>
-      </c>
-      <c r="G2" s="8" t="str" cm="1">
-        <f t="array" ref="G2">IFERROR(INDEX(A6:A500,MATCH(1,(I2=H6:H500)*(I3=J6:J500),0))-1000+5,"")</f>
-        <v/>
       </c>
       <c r="H2" s="7" t="str" cm="1">
         <f t="array" ref="H2">IFERROR(INDEX(A6:A500,MATCH(1,(I2=H6:H500)*(I3=I6:I500)*(K2=M6:M500),0))-1000+5,"")</f>
@@ -4358,7 +4425,7 @@
       </c>
       <c r="J2" s="9" t="str">
         <f>[1]Trade!E7</f>
-        <v/>
+        <v>XNYS:SHOP</v>
       </c>
       <c r="K2" s="9" t="str">
         <f>[1]Trade!F7</f>
@@ -4368,9 +4435,9 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F3" s="11"/>
-      <c r="I3" s="9">
+      <c r="I3" s="9" t="str">
         <f>[1]Trade!C4</f>
-        <v>0</v>
+        <v>Tyler Blakeley</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -6621,13 +6688,16 @@
       <c r="C43" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="D43" s="2">
+        <v>44216</v>
+      </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="12">
         <v>994.87</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="I43" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6635,15 +6705,15 @@
       </c>
       <c r="J43" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Tyler Blakeley</v>
+        <v/>
       </c>
       <c r="K43" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L43" s="6">
+      <c r="L43" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>994.87</v>
+        <v/>
       </c>
       <c r="M43" s="6" t="str" cm="1">
         <f t="array" ref="M43">IFERROR(IF(F43&lt;&gt;"",_FV(E43,"Exchange abbreviation",TRUE) &amp; ":" &amp;_FV(E43,"Ticker symbol",TRUE),""),E43)</f>
@@ -6677,6 +6747,9 @@
       <c r="C44" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="D44" s="2">
+        <v>44216</v>
+      </c>
       <c r="E44" s="1" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
@@ -6684,23 +6757,23 @@
         <v>87</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="I44" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Tyler Blakeley</v>
+        <v/>
       </c>
       <c r="J44" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K44" s="1">
+      <c r="K44" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>87</v>
-      </c>
-      <c r="L44" s="6">
+        <v/>
+      </c>
+      <c r="L44" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="M44" s="6" t="str" cm="1">
         <f t="array" ref="M44">IFERROR(IF(F44&lt;&gt;"",_FV(E44,"Exchange abbreviation",TRUE) &amp; ":" &amp;_FV(E44,"Ticker symbol",TRUE),""),E44)</f>
@@ -9751,22 +9824,34 @@
         <f t="shared" si="7"/>
         <v>1094</v>
       </c>
+      <c r="B99" s="2">
+        <v>44216</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="D99" s="2"/>
+      <c r="G99" s="12">
+        <v>60030.37</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="I99" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J99" s="1" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>Tyler Blakeley</v>
       </c>
       <c r="K99" s="1" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L99" s="6" t="str">
+      <c r="L99" s="6">
         <f t="shared" si="9"/>
-        <v/>
+        <v>60030.37</v>
       </c>
       <c r="M99" s="6" t="str" cm="1">
         <f t="array" ref="M99">IFERROR(IF(F99&lt;&gt;"",_FV(E99,"Exchange abbreviation",TRUE) &amp; ":" &amp;_FV(E99,"Ticker symbol",TRUE),""),E99)</f>
@@ -9794,42 +9879,57 @@
         <f t="shared" si="7"/>
         <v>1095</v>
       </c>
+      <c r="B100" s="2">
+        <v>44216</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="D100" s="2"/>
+      <c r="E100" s="10" t="e" vm="28">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F100" s="21">
+        <v>37</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="I100" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>Tyler Blakeley</v>
       </c>
       <c r="J100" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K100" s="1" t="str">
+      <c r="K100" s="1">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="L100" s="6" t="str">
+        <v>37</v>
+      </c>
+      <c r="L100" s="6">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M100" s="6" t="str" cm="1">
         <f t="array" ref="M100">IFERROR(IF(F100&lt;&gt;"",_FV(E100,"Exchange abbreviation",TRUE) &amp; ":" &amp;_FV(E100,"Ticker symbol",TRUE),""),E100)</f>
-        <v/>
+        <v>XNYS:SHOP</v>
       </c>
       <c r="N100" s="6" t="str" cm="1">
         <f t="array" ref="N100">IFERROR(IF(F100&lt;&gt;"",_FV(E100,"Industry",TRUE),""),"ETF")</f>
-        <v/>
+        <v>Software &amp; IT Services</v>
       </c>
       <c r="O100" s="6" t="str" cm="1">
         <f t="array" ref="O100">IFERROR(IF(F100&lt;&gt;"",_FV(E100,"Exchange abbreviation",TRUE),""),LEFT(M100,FIND(":",M100)-1))</f>
-        <v/>
+        <v>XNYS</v>
       </c>
       <c r="P100" s="1" t="str" cm="1">
         <f t="array" ref="P100">IFERROR(IF(F100&lt;&gt;"",_FV(E100,"Instrument type",TRUE),""),"Unknown")</f>
-        <v/>
+        <v>Stock</v>
       </c>
       <c r="Q100" s="1" t="str" cm="1">
         <f t="array" ref="Q100">IFERROR(IF(F100&lt;&gt;"",_FV(E100,"Ticker symbol",TRUE),""), RIGHT(M100,LEN(M100)-FIND(":",M100)))</f>
-        <v/>
+        <v>SHOP</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
@@ -26638,7 +26738,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F1048576" xr:uid="{02F9BEF3-E9F8-452B-8678-73B9F2AAF26C}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F1048576" xr:uid="{85182F45-1C66-49E4-8DD3-3ED5BCFA4C71}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -26647,7 +26747,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A9DE8597-7A16-428C-811B-E6A1F71CBCBC}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B9B11F59-5EAA-452B-B694-86235142C8D6}">
           <x14:formula1>
             <xm:f>'[Trade of the year_Final.xlsm]Team'!#REF!</xm:f>
           </x14:formula1>
